--- a/site.xlsx
+++ b/site.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MEGA\Python\0.Syukatu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\AutoMypage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64477D6-A639-43D0-99C1-8DDC583973A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007CA460-6E25-4DB7-8899-DC640830923C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-43320" yWindow="-120" windowWidth="21840" windowHeight="13740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="1905" windowWidth="13845" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="会社" sheetId="1" r:id="rId1"/>
@@ -36,11 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
-  <si>
-    <t>グッドパッチ</t>
-    <phoneticPr fontId="2"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>アカウント作成</t>
     <rPh sb="5" eb="7">
@@ -589,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -605,39 +601,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
       <c r="F3"/>
     </row>
   </sheetData>
@@ -650,7 +643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB0A59C-29CE-48D1-85BD-69C73068E7C9}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
@@ -662,76 +655,76 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3">
         <v>2001</v>
@@ -739,7 +732,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3">
         <v>12</v>
@@ -747,7 +740,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3">
         <v>16</v>
@@ -755,7 +748,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3">
         <v>2024</v>
@@ -763,7 +756,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="3">
         <v>3</v>
@@ -771,10 +764,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">

--- a/site.xlsx
+++ b/site.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\AutoMypage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\so12r\Documents\GitHub\AutoMypage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007CA460-6E25-4DB7-8899-DC640830923C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D7ED57-55FB-4DD9-9AF4-8B5B4A2EF94C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="1905" windowWidth="13845" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2955" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="会社" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -184,31 +182,6 @@
     <t>男性</t>
   </si>
   <si>
-    <t>高矢</t>
-    <rPh sb="0" eb="1">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ヤ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>空</t>
-    <rPh sb="0" eb="1">
-      <t>ソラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タカヤ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ソラ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>https://www.mitsuihome.co.jp/saiyo/fresh/recruit/internship.html</t>
   </si>
   <si>
@@ -232,6 +205,22 @@
   </si>
   <si>
     <t>https://mypage.3150.i-webs.jp/mitsuihome2024/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Takaya</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Sora</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Huri</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Gana</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -585,7 +574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -607,10 +596,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -618,16 +607,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -643,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB0A59C-29CE-48D1-85BD-69C73068E7C9}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -655,7 +644,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -663,7 +652,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -671,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -679,7 +668,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -687,7 +676,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">

--- a/site.xlsx
+++ b/site.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\so12r\Documents\GitHub\AutoMypage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D7ED57-55FB-4DD9-9AF4-8B5B4A2EF94C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F718BBB0-6201-4950-B39A-AEF8D8F682D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2955" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4365" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="会社" sheetId="1" r:id="rId1"/>
@@ -51,20 +51,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>フリガナ上</t>
-    <rPh sb="4" eb="5">
-      <t>ウエ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>フリガナ下</t>
-    <rPh sb="4" eb="5">
-      <t>シタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>携帯番号</t>
     <rPh sb="0" eb="4">
       <t>ケイタイバンゴウ</t>
@@ -208,19 +194,42 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Takaya</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Sora</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Huri</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Gana</t>
+    <t>高矢</t>
+    <rPh sb="0" eb="1">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>空</t>
+    <rPh sb="0" eb="1">
+      <t>ソラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タカヤ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ソラ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フリガナ（上）</t>
+    <rPh sb="5" eb="6">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フリガナ（下）</t>
+    <rPh sb="5" eb="6">
+      <t>シタ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -596,10 +605,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -607,16 +616,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -633,7 +642,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -644,76 +653,76 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3">
         <v>2001</v>
@@ -721,7 +730,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3">
         <v>12</v>
@@ -729,7 +738,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3">
         <v>16</v>
@@ -737,7 +746,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3">
         <v>2024</v>
@@ -745,7 +754,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3">
         <v>3</v>
@@ -753,10 +762,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
